--- a/Phase1/Excel_template/sample_output.xlsx
+++ b/Phase1/Excel_template/sample_output.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="TGA" sheetId="1" state="visible" r:id="rId1"/>
@@ -97,83 +97,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -542,7 +542,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -647,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="23" t="n">
-        <v>0.02370267592809963</v>
+        <v>0.02370267592810151</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>0.004439166532685476</v>
+        <v>0.004439166532688425</v>
       </c>
       <c r="F3" s="23" t="n">
-        <v>1.314165429498262e-11</v>
+        <v>1.314165429730738e-11</v>
       </c>
       <c r="G3" s="24" t="n">
-        <v>1.811164465190758e-11</v>
+        <v>1.811164465056677e-11</v>
       </c>
       <c r="H3" s="23" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="23" t="n">
-        <v>2.67864207549419e-17</v>
+        <v>2.678642075744943e-17</v>
       </c>
       <c r="K3" s="24" t="n">
-        <v>3.731788844849296e-17</v>
+        <v>3.73178884473056e-17</v>
       </c>
     </row>
     <row r="4">
@@ -721,16 +721,16 @@
         <v>0.04685646794532872</v>
       </c>
       <c r="D5" s="23" t="n">
-        <v>1.912145114691061e-15</v>
+        <v>1.912145483613614e-15</v>
       </c>
       <c r="E5" s="24" t="n">
-        <v>8.411592700734593e-17</v>
+        <v>8.411629592989913e-17</v>
       </c>
       <c r="F5" s="23" t="n">
         <v>14.99198187949763</v>
       </c>
       <c r="G5" s="24" t="n">
-        <v>0.2696947175409408</v>
+        <v>0.2696947175409399</v>
       </c>
       <c r="H5" s="23" t="n">
         <v>0</v>
@@ -752,22 +752,22 @@
         </is>
       </c>
       <c r="B6" s="23" t="n">
-        <v>0.5055975088779824</v>
+        <v>0.5055975088780085</v>
       </c>
       <c r="C6" s="24" t="n">
-        <v>0.5055975084950278</v>
+        <v>0.5055975084950539</v>
       </c>
       <c r="D6" s="23" t="n">
-        <v>7.716967662150756</v>
+        <v>7.716967662150693</v>
       </c>
       <c r="E6" s="24" t="n">
-        <v>1.071867765860452</v>
+        <v>1.071867765860516</v>
       </c>
       <c r="F6" s="23" t="n">
-        <v>68.77164607333266</v>
+        <v>68.77164607333269</v>
       </c>
       <c r="G6" s="24" t="n">
-        <v>0.6627524399223859</v>
+        <v>0.6627524399224285</v>
       </c>
       <c r="H6" s="23" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>23.00578875563864</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>0.09648218255691532</v>
+        <v>0.09648218255693308</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +790,7 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -808,7 +808,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -913,16 +913,16 @@
         <v>0.08784085176058908</v>
       </c>
       <c r="D3" s="23" t="n">
-        <v>2.464769117248675e-14</v>
+        <v>2.4647691141059e-14</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>3.485700454831852e-14</v>
+        <v>3.485700448631498e-14</v>
       </c>
       <c r="F3" s="23" t="n">
-        <v>0.1384940172031265</v>
+        <v>0.1384940172031266</v>
       </c>
       <c r="G3" s="24" t="n">
-        <v>0.08662565147146234</v>
+        <v>0.08662565147146226</v>
       </c>
       <c r="H3" s="23" t="n">
         <v>0</v>
@@ -931,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="23" t="n">
-        <v>6.149023262572711e-19</v>
+        <v>6.149030382642203e-19</v>
       </c>
       <c r="K3" s="24" t="n">
-        <v>8.616535344633927e-19</v>
+        <v>8.616529892474866e-19</v>
       </c>
     </row>
     <row r="4">
@@ -944,34 +944,34 @@
         </is>
       </c>
       <c r="B4" s="23" t="n">
-        <v>4.894562812731589</v>
+        <v>4.894562812731492</v>
       </c>
       <c r="C4" s="24" t="n">
-        <v>2.097242274970148</v>
+        <v>2.097242274970162</v>
       </c>
       <c r="D4" s="23" t="n">
-        <v>71.30800124914509</v>
+        <v>71.30800124914522</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>7.11596484058244</v>
+        <v>7.115964840582357</v>
       </c>
       <c r="F4" s="23" t="n">
-        <v>4.98060895869797</v>
+        <v>4.980608958697895</v>
       </c>
       <c r="G4" s="24" t="n">
-        <v>4.98060895869797</v>
+        <v>4.980608958697895</v>
       </c>
       <c r="H4" s="23" t="n">
-        <v>0.01348494001898833</v>
+        <v>0.01348494001899544</v>
       </c>
       <c r="I4" s="24" t="n">
-        <v>0.01348494001898833</v>
+        <v>0.01348494001899543</v>
       </c>
       <c r="J4" s="23" t="n">
-        <v>18.80334203940638</v>
+        <v>18.8033420394064</v>
       </c>
       <c r="K4" s="24" t="n">
-        <v>1.794043711911792</v>
+        <v>1.794043711911754</v>
       </c>
     </row>
     <row r="5">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="B5" s="23" t="n">
-        <v>2.138590088425905</v>
+        <v>2.138590088425904</v>
       </c>
       <c r="C5" s="24" t="n">
         <v>1.568551405728327</v>
       </c>
       <c r="D5" s="23" t="n">
-        <v>3.62419017574608e-11</v>
+        <v>3.624190483104317e-11</v>
       </c>
       <c r="E5" s="24" t="n">
-        <v>6.036407232210724e-11</v>
+        <v>6.036407305246763e-11</v>
       </c>
       <c r="F5" s="23" t="n">
-        <v>67.059865816382</v>
+        <v>67.05986581638199</v>
       </c>
       <c r="G5" s="24" t="n">
-        <v>11.49966090127699</v>
+        <v>11.499660901277</v>
       </c>
       <c r="H5" s="23" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="23" t="n">
-        <v>30.80154409515586</v>
+        <v>30.80154409515587</v>
       </c>
       <c r="K5" s="24" t="n">
         <v>13.01531163993053</v>
@@ -1018,22 +1018,22 @@
         </is>
       </c>
       <c r="B6" s="23" t="n">
-        <v>0.3069447885536849</v>
+        <v>0.3069447885536292</v>
       </c>
       <c r="C6" s="24" t="n">
-        <v>0.4537112576625276</v>
+        <v>0.4537112576624831</v>
       </c>
       <c r="D6" s="23" t="n">
-        <v>7.90060098461899</v>
+        <v>7.900600984619167</v>
       </c>
       <c r="E6" s="24" t="n">
-        <v>2.49535165972021</v>
+        <v>2.495351659720073</v>
       </c>
       <c r="F6" s="23" t="n">
-        <v>69.53963901070293</v>
+        <v>69.53963901070281</v>
       </c>
       <c r="G6" s="24" t="n">
-        <v>2.163281109961722</v>
+        <v>2.16328110996163</v>
       </c>
       <c r="H6" s="23" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>22.25281521612441</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>0.3701817647775166</v>
+        <v>0.3701817647775065</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1056,7 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1074,7 +1074,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="23" t="n">
-        <v>7.394293974835896e-14</v>
+        <v>7.394293962924495e-14</v>
       </c>
       <c r="E3" s="24" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="23" t="n">
-        <v>2.702452310086053e-24</v>
+        <v>2.702452396367714e-24</v>
       </c>
       <c r="K3" s="24" t="n">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         </is>
       </c>
       <c r="B4" s="23" t="n">
-        <v>5.988125306792239</v>
+        <v>5.988125306792063</v>
       </c>
       <c r="C4" s="24" t="n">
-        <v>2.055171367061651</v>
+        <v>2.055171367061762</v>
       </c>
       <c r="D4" s="23" t="n">
-        <v>71.30800124914519</v>
+        <v>71.30800124914526</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>7.115964840582322</v>
+        <v>7.115964840582372</v>
       </c>
       <c r="F4" s="23" t="n">
         <v>4.980608958697886</v>
@@ -1228,16 +1228,16 @@
         <v>4.980608958697886</v>
       </c>
       <c r="H4" s="23" t="n">
-        <v>0.0134849400189907</v>
+        <v>0.01348494001900136</v>
       </c>
       <c r="I4" s="24" t="n">
-        <v>0.0134849400189907</v>
+        <v>0.01348494001900136</v>
       </c>
       <c r="J4" s="23" t="n">
-        <v>17.70977954534575</v>
+        <v>17.7097795453458</v>
       </c>
       <c r="K4" s="24" t="n">
-        <v>0.09366945484173783</v>
+        <v>0.09366945484169342</v>
       </c>
     </row>
     <row r="5">
@@ -1250,19 +1250,19 @@
         <v>2.793726156430497</v>
       </c>
       <c r="C5" s="24" t="n">
-        <v>0.1880323685391059</v>
+        <v>0.1880323685391061</v>
       </c>
       <c r="D5" s="23" t="n">
-        <v>1.087146661569619e-10</v>
+        <v>1.087146750779129e-10</v>
       </c>
       <c r="E5" s="24" t="n">
-        <v>5.525406088039157e-11</v>
+        <v>5.525405176970519e-11</v>
       </c>
       <c r="F5" s="23" t="n">
         <v>75.18615275489657</v>
       </c>
       <c r="G5" s="24" t="n">
-        <v>0.4900648900833957</v>
+        <v>0.4900648900834099</v>
       </c>
       <c r="H5" s="23" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="23" t="n">
-        <v>22.02012108856422</v>
+        <v>22.02012108856423</v>
       </c>
       <c r="K5" s="24" t="n">
-        <v>0.6780972585672504</v>
+        <v>0.6780972585672664</v>
       </c>
     </row>
     <row r="6">
@@ -1284,22 +1284,22 @@
         </is>
       </c>
       <c r="B6" s="23" t="n">
-        <v>0.6710966843762056</v>
+        <v>0.6710966843761306</v>
       </c>
       <c r="C6" s="24" t="n">
-        <v>0.6710966843762056</v>
+        <v>0.6710966843761306</v>
       </c>
       <c r="D6" s="23" t="n">
-        <v>8.027928684972675</v>
+        <v>8.027928684972824</v>
       </c>
       <c r="E6" s="24" t="n">
-        <v>2.499015657020283</v>
+        <v>2.499015657020127</v>
       </c>
       <c r="F6" s="23" t="n">
-        <v>69.36740644606373</v>
+        <v>69.36740644606363</v>
       </c>
       <c r="G6" s="24" t="n">
-        <v>2.106257769532576</v>
+        <v>2.106257769532476</v>
       </c>
       <c r="H6" s="23" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="23" t="n">
-        <v>21.93356818458741</v>
+        <v>21.93356818458744</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>0.2783387968884785</v>
+        <v>0.278338796888475</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1322,7 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1340,7 +1340,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1445,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="23" t="n">
-        <v>4.807987310464473e-24</v>
+        <v>4.814449659000044e-24</v>
       </c>
       <c r="E3" s="24" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="23" t="n">
-        <v>0.09989599036215079</v>
+        <v>0.09989599036215115</v>
       </c>
       <c r="G3" s="24" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="23" t="n">
-        <v>1.833447116558422e-18</v>
+        <v>1.833447050723246e-18</v>
       </c>
       <c r="K3" s="24" t="n">
         <v>0</v>
@@ -1476,34 +1476,34 @@
         </is>
       </c>
       <c r="B4" s="23" t="n">
-        <v>3.395341318948512</v>
+        <v>3.395341318948465</v>
       </c>
       <c r="C4" s="24" t="n">
-        <v>0.3041757039277935</v>
+        <v>0.3041757039278457</v>
       </c>
       <c r="D4" s="23" t="n">
-        <v>71.30800124914519</v>
+        <v>71.30800124914531</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>7.115964840582379</v>
+        <v>7.115964840582208</v>
       </c>
       <c r="F4" s="23" t="n">
-        <v>4.980608958697925</v>
+        <v>4.980608958697815</v>
       </c>
       <c r="G4" s="24" t="n">
-        <v>4.980608958697925</v>
+        <v>4.980608958697815</v>
       </c>
       <c r="H4" s="23" t="n">
-        <v>0.01348494001900136</v>
+        <v>0.0134849400189907</v>
       </c>
       <c r="I4" s="24" t="n">
-        <v>0.01348494001900136</v>
+        <v>0.0134849400189907</v>
       </c>
       <c r="J4" s="23" t="n">
-        <v>20.3025635331894</v>
+        <v>20.30256353318939</v>
       </c>
       <c r="K4" s="24" t="n">
-        <v>2.453016525831277</v>
+        <v>2.453016525831217</v>
       </c>
     </row>
     <row r="5">
@@ -1516,13 +1516,13 @@
         <v>3.622044108847216</v>
       </c>
       <c r="C5" s="24" t="n">
-        <v>0.3772236750262596</v>
+        <v>0.377223675026261</v>
       </c>
       <c r="D5" s="23" t="n">
-        <v>1.10391154126017e-14</v>
+        <v>1.103941520932547e-14</v>
       </c>
       <c r="E5" s="24" t="n">
-        <v>2.76809125730042e-15</v>
+        <v>2.76839031287036e-15</v>
       </c>
       <c r="F5" s="23" t="n">
         <v>75.18615275496853</v>
@@ -1540,7 +1540,7 @@
         <v>21.19180313618424</v>
       </c>
       <c r="K5" s="24" t="n">
-        <v>0.1128412150205733</v>
+        <v>0.1128412150205662</v>
       </c>
     </row>
     <row r="6">
@@ -1550,22 +1550,22 @@
         </is>
       </c>
       <c r="B6" s="23" t="n">
-        <v>0.3125436068943457</v>
+        <v>0.312543606894289</v>
       </c>
       <c r="C6" s="24" t="n">
-        <v>0.306897710132659</v>
+        <v>0.3068977101326242</v>
       </c>
       <c r="D6" s="23" t="n">
-        <v>8.11223581304435</v>
+        <v>8.112235813044553</v>
       </c>
       <c r="E6" s="24" t="n">
-        <v>2.80580102038203</v>
+        <v>2.805801020381885</v>
       </c>
       <c r="F6" s="23" t="n">
-        <v>69.45025298289049</v>
+        <v>69.45025298289036</v>
       </c>
       <c r="G6" s="24" t="n">
-        <v>2.369888625444142</v>
+        <v>2.369888625444063</v>
       </c>
       <c r="H6" s="23" t="n">
         <v>0</v>
@@ -1574,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="23" t="n">
-        <v>22.12496759717084</v>
+        <v>22.12496759717081</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>0.185468158909223</v>
+        <v>0.1854681589091942</v>
       </c>
     </row>
   </sheetData>
@@ -1588,7 +1588,7 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1606,7 +1606,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="23" t="n">
-        <v>1.337642932977518e-19</v>
+        <v>1.337891176018576e-19</v>
       </c>
       <c r="E3" s="24" t="n">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="23" t="n">
-        <v>1.125715976108147e-20</v>
+        <v>1.125936161701835e-20</v>
       </c>
       <c r="K3" s="24" t="n">
         <v>0</v>
@@ -1742,34 +1742,34 @@
         </is>
       </c>
       <c r="B4" s="23" t="n">
-        <v>5.300221812454015</v>
+        <v>5.300221812453946</v>
       </c>
       <c r="C4" s="24" t="n">
-        <v>2.295848434244462</v>
+        <v>2.295848434244461</v>
       </c>
       <c r="D4" s="23" t="n">
-        <v>71.30800124914488</v>
+        <v>71.30800124914508</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>7.11596484058262</v>
+        <v>7.115964840582492</v>
       </c>
       <c r="F4" s="23" t="n">
-        <v>4.980608958698099</v>
+        <v>4.980608958697985</v>
       </c>
       <c r="G4" s="24" t="n">
-        <v>4.980608958698099</v>
+        <v>4.980608958697985</v>
       </c>
       <c r="H4" s="23" t="n">
-        <v>0.01348494001897294</v>
+        <v>0.01348494001899425</v>
       </c>
       <c r="I4" s="24" t="n">
-        <v>0.01348494001897294</v>
+        <v>0.01348494001899425</v>
       </c>
       <c r="J4" s="23" t="n">
         <v>18.397683039684</v>
       </c>
       <c r="K4" s="24" t="n">
-        <v>0.1470076123409907</v>
+        <v>0.147007612340964</v>
       </c>
     </row>
     <row r="5">
@@ -1779,19 +1779,19 @@
         </is>
       </c>
       <c r="B5" s="23" t="n">
-        <v>7.089002473064803e-22</v>
+        <v>7.065285653939259e-22</v>
       </c>
       <c r="C5" s="24" t="n">
-        <v>5.684217148402481e-22</v>
+        <v>5.67174481572883e-22</v>
       </c>
       <c r="D5" s="23" t="n">
-        <v>7.863062580655441e-24</v>
+        <v>7.230560217736475e-24</v>
       </c>
       <c r="E5" s="24" t="n">
-        <v>5.501074190904413e-24</v>
+        <v>5.06082669691867e-24</v>
       </c>
       <c r="F5" s="23" t="n">
-        <v>50.80729193928089</v>
+        <v>50.80729193928087</v>
       </c>
       <c r="G5" s="24" t="n">
         <v>0.1644350758907684</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="23" t="n">
-        <v>49.19270806071911</v>
+        <v>49.19270806071912</v>
       </c>
       <c r="K5" s="24" t="n">
-        <v>0.1644350758907684</v>
+        <v>0.1644350758907649</v>
       </c>
     </row>
     <row r="6">
@@ -1816,22 +1816,22 @@
         </is>
       </c>
       <c r="B6" s="23" t="n">
-        <v>0.05857803966467696</v>
+        <v>0.05857803966463494</v>
       </c>
       <c r="C6" s="24" t="n">
-        <v>0.06624635083893114</v>
+        <v>0.06624635083890933</v>
       </c>
       <c r="D6" s="23" t="n">
-        <v>7.604081022624506</v>
+        <v>7.604081022624676</v>
       </c>
       <c r="E6" s="24" t="n">
-        <v>2.103644281352838</v>
+        <v>2.103644281352716</v>
       </c>
       <c r="F6" s="23" t="n">
-        <v>69.74384674827486</v>
+        <v>69.74384674827472</v>
       </c>
       <c r="G6" s="24" t="n">
-        <v>1.958581230761621</v>
+        <v>1.958581230761521</v>
       </c>
       <c r="H6" s="23" t="n">
         <v>0</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="23" t="n">
-        <v>22.59349418943598</v>
+        <v>22.59349418943599</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>0.2811151379178123</v>
+        <v>0.2811151379177962</v>
       </c>
     </row>
   </sheetData>
@@ -1854,6 +1854,6 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Phase1/Excel_template/sample_output.xlsx
+++ b/Phase1/Excel_template/sample_output.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TGA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GPA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GPA_ORG" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GPA_HUM" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GPA_HYD" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TGA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GPA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GPA_ORG" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GPA_HUM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GPA_HYD" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -97,151 +97,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -542,7 +474,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="31"/>
+    <col width="31" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -647,16 +579,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="23" t="n">
-        <v>0.02370267592810151</v>
+        <v>0.02370267592809737</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>0.004439166532688425</v>
+        <v>0.004439166532691641</v>
       </c>
       <c r="F3" s="23" t="n">
-        <v>1.314165429730738e-11</v>
+        <v>1.314165474591281e-11</v>
       </c>
       <c r="G3" s="24" t="n">
-        <v>1.811164465056677e-11</v>
+        <v>1.811164528956489e-11</v>
       </c>
       <c r="H3" s="23" t="n">
         <v>0</v>
@@ -665,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="23" t="n">
-        <v>2.678642075744943e-17</v>
+        <v>2.678642168100991e-17</v>
       </c>
       <c r="K3" s="24" t="n">
-        <v>3.73178884473056e-17</v>
+        <v>3.731788975798495e-17</v>
       </c>
     </row>
     <row r="4">
@@ -721,16 +653,16 @@
         <v>0.04685646794532872</v>
       </c>
       <c r="D5" s="23" t="n">
-        <v>1.912145483613614e-15</v>
+        <v>1.912145273509739e-15</v>
       </c>
       <c r="E5" s="24" t="n">
-        <v>8.411629592989913e-17</v>
+        <v>8.411608582602354e-17</v>
       </c>
       <c r="F5" s="23" t="n">
         <v>14.99198187949763</v>
       </c>
       <c r="G5" s="24" t="n">
-        <v>0.2696947175409399</v>
+        <v>0.2696947175409408</v>
       </c>
       <c r="H5" s="23" t="n">
         <v>0</v>
@@ -790,7 +722,7 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -808,7 +740,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="31"/>
+    <col width="31" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -913,10 +845,10 @@
         <v>0.08784085176058908</v>
       </c>
       <c r="D3" s="23" t="n">
-        <v>2.4647691141059e-14</v>
+        <v>2.464769113887382e-14</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>3.485700448631498e-14</v>
+        <v>3.485700448786013e-14</v>
       </c>
       <c r="F3" s="23" t="n">
         <v>0.1384940172031266</v>
@@ -931,10 +863,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="23" t="n">
-        <v>6.149030382642203e-19</v>
+        <v>6.149025461370249e-19</v>
       </c>
       <c r="K3" s="24" t="n">
-        <v>8.616529892474866e-19</v>
+        <v>8.616533425560885e-19</v>
       </c>
     </row>
     <row r="4">
@@ -987,10 +919,10 @@
         <v>1.568551405728327</v>
       </c>
       <c r="D5" s="23" t="n">
-        <v>3.624190483104317e-11</v>
+        <v>3.624190483104334e-11</v>
       </c>
       <c r="E5" s="24" t="n">
-        <v>6.036407305246763e-11</v>
+        <v>6.036407305246754e-11</v>
       </c>
       <c r="F5" s="23" t="n">
         <v>67.05986581638199</v>
@@ -1005,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="23" t="n">
-        <v>30.80154409515587</v>
+        <v>30.80154409515586</v>
       </c>
       <c r="K5" s="24" t="n">
         <v>13.01531163993053</v>
@@ -1027,13 +959,13 @@
         <v>7.900600984619167</v>
       </c>
       <c r="E6" s="24" t="n">
-        <v>2.495351659720073</v>
+        <v>2.495351659720074</v>
       </c>
       <c r="F6" s="23" t="n">
         <v>69.53963901070281</v>
       </c>
       <c r="G6" s="24" t="n">
-        <v>2.16328110996163</v>
+        <v>2.163281109961628</v>
       </c>
       <c r="H6" s="23" t="n">
         <v>0</v>
@@ -1045,7 +977,7 @@
         <v>22.25281521612441</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>0.3701817647775065</v>
+        <v>0.3701817647775084</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +988,7 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1074,7 +1006,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="31"/>
+    <col width="31" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1185,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="23" t="n">
-        <v>0.05710216965664084</v>
+        <v>0.05710216965664085</v>
       </c>
       <c r="G3" s="24" t="n">
         <v>0</v>
@@ -1197,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="23" t="n">
-        <v>2.702452396367714e-24</v>
+        <v>2.702452393286226e-24</v>
       </c>
       <c r="K3" s="24" t="n">
         <v>0</v>
@@ -1322,7 +1254,7 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1340,7 +1272,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="31"/>
+    <col width="31" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1445,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="23" t="n">
-        <v>4.814449659000044e-24</v>
+        <v>4.807987310464473e-24</v>
       </c>
       <c r="E3" s="24" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="23" t="n">
-        <v>0.09989599036215115</v>
+        <v>0.0998959903621511</v>
       </c>
       <c r="G3" s="24" t="n">
         <v>0</v>
@@ -1463,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="23" t="n">
-        <v>1.833447050723246e-18</v>
+        <v>1.83344706284015e-18</v>
       </c>
       <c r="K3" s="24" t="n">
         <v>0</v>
@@ -1556,16 +1488,16 @@
         <v>0.3068977101326242</v>
       </c>
       <c r="D6" s="23" t="n">
-        <v>8.112235813044553</v>
+        <v>8.112235813044554</v>
       </c>
       <c r="E6" s="24" t="n">
-        <v>2.805801020381885</v>
+        <v>2.805801020381888</v>
       </c>
       <c r="F6" s="23" t="n">
-        <v>69.45025298289036</v>
+        <v>69.45025298289038</v>
       </c>
       <c r="G6" s="24" t="n">
-        <v>2.369888625444063</v>
+        <v>2.369888625444056</v>
       </c>
       <c r="H6" s="23" t="n">
         <v>0</v>
@@ -1577,7 +1509,7 @@
         <v>22.12496759717081</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>0.1854681589091942</v>
+        <v>0.1854681589092008</v>
       </c>
     </row>
   </sheetData>
@@ -1588,7 +1520,7 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1606,7 +1538,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="31"/>
+    <col width="31" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1711,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="23" t="n">
-        <v>1.337891176018576e-19</v>
+        <v>1.337825685164878e-19</v>
       </c>
       <c r="E3" s="24" t="n">
         <v>0</v>
@@ -1729,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="23" t="n">
-        <v>1.125936161701835e-20</v>
+        <v>1.125787311853173e-20</v>
       </c>
       <c r="K3" s="24" t="n">
         <v>0</v>
@@ -1779,22 +1711,22 @@
         </is>
       </c>
       <c r="B5" s="23" t="n">
-        <v>7.065285653939259e-22</v>
+        <v>7.083057112412078e-22</v>
       </c>
       <c r="C5" s="24" t="n">
-        <v>5.67174481572883e-22</v>
+        <v>5.689645521172361e-22</v>
       </c>
       <c r="D5" s="23" t="n">
-        <v>7.230560217736475e-24</v>
+        <v>7.762088384787151e-24</v>
       </c>
       <c r="E5" s="24" t="n">
-        <v>5.06082669691867e-24</v>
+        <v>5.595586038237132e-24</v>
       </c>
       <c r="F5" s="23" t="n">
-        <v>50.80729193928087</v>
+        <v>50.80729193928088</v>
       </c>
       <c r="G5" s="24" t="n">
-        <v>0.1644350758907684</v>
+        <v>0.164435075890772</v>
       </c>
       <c r="H5" s="23" t="n">
         <v>0</v>
@@ -1806,7 +1738,7 @@
         <v>49.19270806071912</v>
       </c>
       <c r="K5" s="24" t="n">
-        <v>0.1644350758907649</v>
+        <v>0.164435075890772</v>
       </c>
     </row>
     <row r="6">
@@ -1854,6 +1786,6 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>